--- a/production/data/instruments.xlsx
+++ b/production/data/instruments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="155">
   <si>
     <t>Melanippides</t>
   </si>
@@ -123,9 +123,6 @@
     <t>note that the kithara players are drawn only from the list of the kitharodoi, i.e. doesn't include kitharists</t>
   </si>
   <si>
-    <t xml:space="preserve">Ion </t>
-  </si>
-  <si>
     <t>Dion</t>
   </si>
   <si>
@@ -487,6 +484,12 @@
   </si>
   <si>
     <t>Sacadion</t>
+  </si>
+  <si>
+    <t>Pindar</t>
+  </si>
+  <si>
+    <t>Aulus</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -599,6 +602,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -894,7 +900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -930,7 +936,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1352,7 +1358,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="B28" s="6">
         <v>55</v>
@@ -1368,7 +1374,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="6">
         <v>61</v>
@@ -1384,7 +1390,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="6">
         <v>64</v>
@@ -1400,7 +1406,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="6">
         <v>64</v>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4">
         <v>92</v>
@@ -1432,7 +1438,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4">
         <v>93</v>
@@ -1448,7 +1454,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4">
         <v>94</v>
@@ -1464,7 +1470,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4">
         <v>97</v>
@@ -1480,7 +1486,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4">
         <v>98</v>
@@ -1496,13 +1502,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4">
         <v>100</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="4">
         <v>5</v>
@@ -1512,7 +1518,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4">
         <v>103</v>
@@ -1528,7 +1534,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4">
         <v>105</v>
@@ -1544,7 +1550,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4">
         <v>106</v>
@@ -1560,7 +1566,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="4">
         <v>111</v>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="4">
         <v>114</v>
@@ -1588,31 +1594,31 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="4">
         <v>117</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D43" s="4">
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="4">
         <v>118</v>
@@ -1631,13 +1637,13 @@
         <v>59</v>
       </c>
       <c r="B45" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D45" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45"/>
       <c r="F45" s="2"/>
@@ -1647,13 +1653,13 @@
         <v>60</v>
       </c>
       <c r="B46" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46"/>
       <c r="F46" s="2"/>
@@ -1663,13 +1669,13 @@
         <v>61</v>
       </c>
       <c r="B47" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D47" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47"/>
       <c r="F47" s="2"/>
@@ -1679,23 +1685,23 @@
         <v>62</v>
       </c>
       <c r="B48" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>23</v>
@@ -1708,32 +1714,32 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="4">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="4">
         <v>128</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D51" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51"/>
       <c r="F51" s="2"/>
@@ -1743,7 +1749,7 @@
         <v>69</v>
       </c>
       <c r="B52" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>23</v>
@@ -1756,10 +1762,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" s="4">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>23</v>
@@ -1772,18 +1778,20 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="4">
         <v>131</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
-      </c>
-      <c r="E54"/>
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6">
@@ -1791,25 +1799,21 @@
         <v>72</v>
       </c>
       <c r="B55" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="D55" s="4">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B56" s="4">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>27</v>
@@ -1820,24 +1824,24 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="4">
         <v>135</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D57" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" s="4">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>24</v>
@@ -1851,7 +1855,7 @@
         <v>78</v>
       </c>
       <c r="B59" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>24</v>
@@ -1862,24 +1866,24 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="4">
         <v>138</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D60" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" s="4">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>27</v>
@@ -1893,97 +1897,111 @@
         <v>81</v>
       </c>
       <c r="B62" s="4">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D62" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="4">
         <v>141</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D63" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="4">
         <v>141</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D64" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B65" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D65" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="B66" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D66" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" s="4">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="4">
-        <v>145</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="4">
+      <c r="A68" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="9">
+        <v>149</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="9">
+        <v>149</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2087,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -2077,7 +2095,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -2085,7 +2103,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
@@ -2113,7 +2131,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2">
         <v>18</v>
@@ -2121,7 +2139,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>92</v>
@@ -2129,7 +2147,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>93</v>
@@ -2153,7 +2171,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>94</v>
@@ -2161,7 +2179,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>95</v>
@@ -2169,7 +2187,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2">
         <v>8</v>
@@ -2177,7 +2195,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>96</v>
@@ -2185,7 +2203,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2">
         <v>56</v>
@@ -2193,7 +2211,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
         <v>97</v>
@@ -2209,7 +2227,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>98</v>
@@ -2225,7 +2243,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2">
         <v>23</v>
@@ -2233,7 +2251,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2">
         <v>9</v>
@@ -2241,7 +2259,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2">
         <v>57</v>
@@ -2257,7 +2275,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2">
         <v>10</v>
@@ -2265,7 +2283,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
@@ -2273,7 +2291,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2">
         <v>99</v>
@@ -2281,7 +2299,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2">
         <v>100</v>
@@ -2289,7 +2307,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
@@ -2297,7 +2315,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2">
         <v>101</v>
@@ -2305,7 +2323,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2">
         <v>33</v>
@@ -2313,7 +2331,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2">
         <v>102</v>
@@ -2321,7 +2339,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2">
         <v>58</v>
@@ -2329,7 +2347,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
         <v>103</v>
@@ -2337,7 +2355,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
@@ -2353,7 +2371,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2">
         <v>104</v>
@@ -2361,7 +2379,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2">
         <v>105</v>
@@ -2369,7 +2387,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
         <v>106</v>
@@ -2377,7 +2395,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2">
         <v>107</v>
@@ -2393,7 +2411,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2">
         <v>59</v>
@@ -2401,7 +2419,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="2">
         <v>60</v>
@@ -2409,7 +2427,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>61</v>
@@ -2417,7 +2435,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2">
         <v>109</v>
@@ -2425,7 +2443,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2">
         <v>62</v>
@@ -2433,7 +2451,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" s="2">
         <v>21</v>
@@ -2441,7 +2459,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2">
         <v>63</v>
@@ -2449,7 +2467,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2">
         <v>111</v>
@@ -2457,7 +2475,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="2">
         <v>64</v>
@@ -2473,7 +2491,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2">
         <v>65</v>
@@ -2481,7 +2499,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2">
         <v>44</v>
@@ -2489,7 +2507,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2">
         <v>112</v>
@@ -2497,7 +2515,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2">
         <v>66</v>
@@ -2505,7 +2523,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2">
         <v>113</v>
@@ -2513,7 +2531,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2">
         <v>114</v>
@@ -2521,7 +2539,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2">
         <v>67</v>
@@ -2537,7 +2555,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2">
         <v>68</v>
@@ -2545,7 +2563,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2">
         <v>12</v>
@@ -2553,7 +2571,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2">
         <v>69</v>
@@ -2561,7 +2579,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>115</v>
@@ -2569,7 +2587,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2">
         <v>70</v>
@@ -2577,7 +2595,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2">
         <v>71</v>
@@ -2585,7 +2603,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="2">
         <v>116</v>
@@ -2593,7 +2611,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2">
         <v>117</v>
@@ -2601,7 +2619,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="2">
         <v>118</v>
@@ -2609,7 +2627,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2">
         <v>55</v>
@@ -2617,7 +2635,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2">
         <v>72</v>
@@ -2625,7 +2643,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2">
         <v>73</v>
@@ -2633,7 +2651,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2">
         <v>74</v>
@@ -2641,7 +2659,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2">
         <v>13</v>
@@ -2657,7 +2675,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2">
         <v>14</v>
@@ -2665,7 +2683,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2">
         <v>75</v>
@@ -2673,7 +2691,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2">
         <v>76</v>
@@ -2689,7 +2707,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2">
         <v>20</v>
@@ -2705,7 +2723,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" s="2">
         <v>119</v>
@@ -2713,7 +2731,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76" s="2">
         <v>120</v>
@@ -2721,7 +2739,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2">
         <v>28</v>
@@ -2729,7 +2747,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" s="2">
         <v>121</v>
@@ -2737,7 +2755,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2">
         <v>77</v>
@@ -2745,7 +2763,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2">
         <v>3</v>
@@ -2753,7 +2771,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2">
         <v>52</v>
@@ -2769,7 +2787,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2">
         <v>91</v>
@@ -2785,7 +2803,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2">
         <v>53</v>
@@ -2793,7 +2811,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B86" s="2">
         <v>122</v>
@@ -2809,7 +2827,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88" s="2">
         <v>123</v>
@@ -2817,7 +2835,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2">
         <v>15</v>
@@ -2825,7 +2843,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2">
         <v>16</v>
@@ -2841,7 +2859,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2">
         <v>78</v>
@@ -2849,7 +2867,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="2">
         <v>124</v>
@@ -2857,7 +2875,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="2">
         <v>125</v>
@@ -2865,7 +2883,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2">
         <v>79</v>
@@ -2873,7 +2891,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2">
         <v>17</v>
@@ -2881,7 +2899,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2">
         <v>89</v>
@@ -2889,7 +2907,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B98" s="2">
         <v>126</v>
@@ -2897,7 +2915,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2">
         <v>24</v>
@@ -2905,7 +2923,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2">
         <v>25</v>
@@ -2913,7 +2931,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B101" s="2">
         <v>127</v>
@@ -2921,7 +2939,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2">
         <v>81</v>
@@ -2937,7 +2955,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2">
         <v>82</v>
@@ -2945,7 +2963,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2">
         <v>26</v>
@@ -2953,7 +2971,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B106" s="2">
         <v>128</v>
@@ -2961,7 +2979,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B107" s="2">
         <v>129</v>
@@ -2969,7 +2987,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B108" s="2">
         <v>83</v>
@@ -2985,7 +3003,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B110" s="2">
         <v>131</v>
@@ -2993,7 +3011,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B111" s="2">
         <v>132</v>
@@ -3001,7 +3019,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B112" s="2">
         <v>133</v>
@@ -3009,7 +3027,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B113" s="2">
         <v>134</v>
@@ -3017,7 +3035,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B114" s="2">
         <v>135</v>
@@ -3025,7 +3043,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2">
         <v>84</v>
@@ -3033,7 +3051,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B116" s="2">
         <v>136</v>
@@ -3041,7 +3059,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B117" s="2">
         <v>137</v>
@@ -3049,7 +3067,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118" s="2">
         <v>85</v>
@@ -3057,7 +3075,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2">
         <v>86</v>
@@ -3065,7 +3083,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120" s="2">
         <v>138</v>
@@ -3073,7 +3091,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="2">
         <v>139</v>
@@ -3081,7 +3099,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B122" s="2">
         <v>54</v>
@@ -3105,7 +3123,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B125" s="2">
         <v>141</v>
@@ -3113,7 +3131,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2">
         <v>142</v>
@@ -3121,7 +3139,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2">
         <v>87</v>
@@ -3129,7 +3147,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B128" s="2">
         <v>143</v>
@@ -3145,7 +3163,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B130" s="2">
         <v>144</v>
@@ -3153,7 +3171,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2">
         <v>88</v>
@@ -3169,7 +3187,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B133" s="2">
         <v>146</v>
@@ -3177,7 +3195,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B134" s="2">
         <v>145</v>
@@ -3185,7 +3203,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B135" s="2">
         <v>147</v>
@@ -3193,7 +3211,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2">
         <v>90</v>
@@ -3201,7 +3219,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2">
         <v>148</v>
